--- a/data/quadrat_dat_quality.xlsx
+++ b/data/quadrat_dat_quality.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="141">
   <si>
     <t>quadrat</t>
   </si>
@@ -53,7 +53,400 @@
     <t>A5</t>
   </si>
   <si>
-    <t>timeseries?</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>long ts?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>AR1</t>
+  </si>
+  <si>
+    <t>AR2</t>
+  </si>
+  <si>
+    <t>AR3</t>
+  </si>
+  <si>
+    <t>AR4</t>
+  </si>
+  <si>
+    <t>AR5</t>
+  </si>
+  <si>
+    <t>AR6</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B2A</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>grass to bare</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>grass, shrub recent</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>grass/bare, shrub recent</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>grass/bare</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>bare/grass, shrub recent</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L3A</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>MG1</t>
+  </si>
+  <si>
+    <t>MG2</t>
+  </si>
+  <si>
+    <t>MG3</t>
+  </si>
+  <si>
+    <t>MG4</t>
+  </si>
+  <si>
+    <t>MG5</t>
+  </si>
+  <si>
+    <t>MG6</t>
+  </si>
+  <si>
+    <t>MG7</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N3A</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>PBR1</t>
+  </si>
+  <si>
+    <t>PBR2</t>
+  </si>
+  <si>
+    <t>PBR3</t>
+  </si>
+  <si>
+    <t>PBR4</t>
+  </si>
+  <si>
+    <t>PSG1</t>
+  </si>
+  <si>
+    <t>PSG2</t>
+  </si>
+  <si>
+    <t>PSG3</t>
+  </si>
+  <si>
+    <t>PSG4</t>
+  </si>
+  <si>
+    <t>PSG5</t>
+  </si>
+  <si>
+    <t>PSG6</t>
+  </si>
+  <si>
+    <t>PSG7</t>
+  </si>
+  <si>
+    <t>PSG8</t>
+  </si>
+  <si>
+    <t>PSG9</t>
+  </si>
+  <si>
+    <t>PSG10</t>
+  </si>
+  <si>
+    <t>PSG11</t>
+  </si>
+  <si>
+    <t>PSG12</t>
+  </si>
+  <si>
+    <t>PSG13</t>
+  </si>
+  <si>
+    <t>PSG14</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>missing middle</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>grass to shrub</t>
+  </si>
+  <si>
+    <t>bare/grass to shrub</t>
   </si>
 </sst>
 </file>
@@ -371,15 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,38 +780,1448 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
